--- a/data/trans_orig/PER_CALI_VERDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CALI_VERDE-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la calidad de zonas verdes en Barcelona</t>
+          <t>Percepción de la calidad de zonas verdes en Barcelona (tasa de respuesta: 98,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CALI_VERDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CALI_VERDE-Edad-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5893</t>
+          <t>5932</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>499</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7779</t>
+          <t>7901</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1533</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7356</t>
+          <t>7168</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10142</t>
+          <t>10057</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>6026</t>
+          <t>6158</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>14287</t>
+          <t>14295</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9819</t>
+          <t>10015</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18968</t>
+          <t>19120</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11554</t>
+          <t>11574</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20795</t>
+          <t>21027</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>24481</t>
+          <t>23833</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>37601</t>
+          <t>36873</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>29,4%</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23448</t>
+          <t>24021</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34750</t>
+          <t>34873</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20281</t>
+          <t>20559</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30365</t>
+          <t>30593</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>50,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>46616</t>
+          <t>47038</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>62300</t>
+          <t>62688</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>49,99%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10278</t>
+          <t>10198</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20387</t>
+          <t>20470</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8093</t>
+          <t>7663</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18140</t>
+          <t>17770</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>20484</t>
+          <t>20168</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>33948</t>
+          <t>34561</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>27,56%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2170</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9548</t>
+          <t>8734</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5148</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14185</t>
+          <t>13626</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8765</t>
+          <t>8864</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19792</t>
+          <t>20795</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>8,3%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6706</t>
+          <t>6599</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16039</t>
+          <t>15838</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6520</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14371</t>
+          <t>15209</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>14886</t>
+          <t>14911</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>27559</t>
+          <t>27675</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23277</t>
+          <t>23775</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36905</t>
+          <t>36864</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28659</t>
+          <t>28143</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>43435</t>
+          <t>42274</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>55182</t>
+          <t>55057</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>76021</t>
+          <t>75240</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,05%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41237</t>
+          <t>42267</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57850</t>
+          <t>57664</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39523</t>
+          <t>39227</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57041</t>
+          <t>56187</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>86310</t>
+          <t>86939</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>109571</t>
+          <t>109163</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>43,59%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22111</t>
+          <t>21604</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34968</t>
+          <t>35406</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,82 +1887,82 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26058</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19111</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>33096</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20,43%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>54198</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>45068</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>65163</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>18,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>28,46%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>26058</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>19583</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>33889</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>20,43%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>15,35%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>26,57%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>54198</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>46112</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>65692</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>21,64%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>18,41%</t>
-        </is>
-      </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>26,02%</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11799</t>
+          <t>11398</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4262</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10784</t>
+          <t>11592</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8669</t>
+          <t>9132</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19143</t>
+          <t>18709</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11518</t>
+          <t>11593</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6286</t>
+          <t>5797</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15184</t>
+          <t>14142</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>12610</t>
+          <t>12503</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>23904</t>
+          <t>23876</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,87%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30286</t>
+          <t>31302</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47444</t>
+          <t>46918</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>32010</t>
+          <t>31992</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>47149</t>
+          <t>47764</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>66800</t>
+          <t>67808</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>89701</t>
+          <t>89930</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>33,4%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51342</t>
+          <t>51459</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>69613</t>
+          <t>69079</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>37,2%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>49,94%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>41306</t>
+          <t>41889</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>58842</t>
+          <t>59224</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>97838</t>
+          <t>98439</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>122799</t>
+          <t>123507</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>45,87%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>19366</t>
+          <t>19103</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>36749</t>
+          <t>35360</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18946</t>
+          <t>18352</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>32786</t>
+          <t>32752</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>41819</t>
+          <t>40849</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>62729</t>
+          <t>63081</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,43%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7112</t>
+          <t>7436</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9241</t>
+          <t>8786</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2834,47 +2834,47 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>9302</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>6310</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>14067</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
           <t>2,68%</t>
         </is>
       </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>9302</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>6025</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>14042</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>5463</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13799</t>
+          <t>13740</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>10898</t>
+          <t>10891</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>23752</t>
+          <t>23696</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>18970</t>
+          <t>18951</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>34898</t>
+          <t>34586</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,69%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>29554</t>
+          <t>28556</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>45034</t>
+          <t>44427</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>26416</t>
+          <t>27433</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>39794</t>
+          <t>40788</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>59982</t>
+          <t>60419</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>80551</t>
+          <t>80056</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>43823</t>
+          <t>43016</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>61072</t>
+          <t>60259</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>51,97%</t>
+          <t>51,28%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>41700</t>
+          <t>42328</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>57170</t>
+          <t>58105</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>90819</t>
+          <t>90284</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>113557</t>
+          <t>112460</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>47,78%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11433</t>
+          <t>11248</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24308</t>
+          <t>23388</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>9143</t>
+          <t>8826</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>19806</t>
+          <t>19138</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>22880</t>
+          <t>22866</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>39158</t>
+          <t>38075</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,18%</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1468</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6311</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>13516</t>
+          <t>13827</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>6549</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>16192</t>
+          <t>16732</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3551,12 +3551,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7151</t>
+          <t>7025</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>18855</t>
+          <t>18175</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>10220</t>
+          <t>10647</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>22695</t>
+          <t>22551</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>19613</t>
+          <t>19314</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>35351</t>
+          <t>36081</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>17,17%</t>
         </is>
       </c>
     </row>
@@ -3692,12 +3692,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>24330</t>
+          <t>23684</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>38579</t>
+          <t>38566</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>28289</t>
+          <t>28093</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>40614</t>
+          <t>40775</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>55288</t>
+          <t>55802</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>75703</t>
+          <t>75276</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>35,83%</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>31670</t>
+          <t>31782</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>47526</t>
+          <t>47314</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>48,39%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>33437</t>
+          <t>33529</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>48351</t>
+          <t>47872</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>69306</t>
+          <t>69346</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>92424</t>
+          <t>90116</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>42,89%</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>8788</t>
+          <t>8457</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>20802</t>
+          <t>20395</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3933,12 +3933,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>10183</t>
+          <t>10261</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>19960</t>
+          <t>20171</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3968,12 +3968,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>20856</t>
+          <t>21437</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>36326</t>
+          <t>36315</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6498</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>9324</t>
+          <t>9063</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>13115</t>
+          <t>13583</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>6725</t>
+          <t>6255</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>16228</t>
+          <t>15855</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>6510</t>
+          <t>6436</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>14976</t>
+          <t>15078</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>15316</t>
+          <t>15164</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>27741</t>
+          <t>27307</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4346,12 +4346,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -4374,12 +4374,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>16415</t>
+          <t>16406</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>28307</t>
+          <t>27663</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>33243</t>
+          <t>33181</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>39326</t>
+          <t>40109</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>57758</t>
+          <t>56695</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4459,12 +4459,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>36,22%</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>22584</t>
+          <t>23235</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>35442</t>
+          <t>35603</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>31514</t>
+          <t>31636</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>45916</t>
+          <t>46193</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>58597</t>
+          <t>58166</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>78040</t>
+          <t>77150</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>49,29%</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>2169</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>6641</t>
+          <t>6763</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>5427</t>
+          <t>5298</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>12398</t>
+          <t>12437</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>8547</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>17371</t>
+          <t>16988</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,85%</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4830,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1492</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>7421</t>
+          <t>7518</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4845,12 +4845,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4865,12 +4865,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>11296</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4880,12 +4880,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>6157</t>
+          <t>6687</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>16855</t>
+          <t>16459</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6258</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>15035</t>
+          <t>14827</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>9699</t>
+          <t>9191</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>19975</t>
+          <t>20610</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,71%</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>20172</t>
+          <t>19862</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>31392</t>
+          <t>31454</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>46,38%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>29664</t>
+          <t>29088</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>46011</t>
+          <t>44557</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>52523</t>
+          <t>53595</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>73348</t>
+          <t>73361</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>41,68%</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>20404</t>
+          <t>20336</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>31366</t>
+          <t>31220</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>33063</t>
+          <t>33751</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>49020</t>
+          <t>49801</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>56347</t>
+          <t>56816</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>76006</t>
+          <t>76813</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>43,64%</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>5272</t>
+          <t>5363</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>12867</t>
+          <t>13157</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>9372</t>
+          <t>9416</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>19935</t>
+          <t>20582</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -5332,12 +5332,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>16509</t>
+          <t>16515</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>29671</t>
+          <t>30096</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>17,1%</t>
         </is>
       </c>
     </row>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>21798</t>
+          <t>21364</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>35990</t>
+          <t>36485</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>32128</t>
+          <t>32390</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>49941</t>
+          <t>51025</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -5562,12 +5562,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -5582,12 +5582,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>57622</t>
+          <t>56703</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>81495</t>
+          <t>81289</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -5597,12 +5597,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5625,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>45534</t>
+          <t>46774</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>68724</t>
+          <t>68225</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>64568</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>90343</t>
+          <t>89050</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -5675,12 +5675,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>116494</t>
+          <t>117323</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>150377</t>
+          <t>150715</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -5710,12 +5710,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,59%</t>
         </is>
       </c>
     </row>
@@ -5738,12 +5738,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>178833</t>
+          <t>179658</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>216751</t>
+          <t>215825</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5773,12 +5773,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>205079</t>
+          <t>204256</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>240163</t>
+          <t>239355</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>394716</t>
+          <t>394294</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>446498</t>
+          <t>445878</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>31,33%</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>265848</t>
+          <t>266360</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>305722</t>
+          <t>303486</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -5866,12 +5866,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>45,14%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>274481</t>
+          <t>274133</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>314890</t>
+          <t>311493</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>41,77%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5921,12 +5921,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>550581</t>
+          <t>551020</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>606187</t>
+          <t>606120</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>42,59%</t>
         </is>
       </c>
     </row>
@@ -5964,12 +5964,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>96296</t>
+          <t>97481</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>128985</t>
+          <t>126576</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5999,12 +5999,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>99683</t>
+          <t>99937</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>129696</t>
+          <t>129762</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>203006</t>
+          <t>202938</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>247465</t>
+          <t>245715</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,27%</t>
         </is>
       </c>
     </row>
